--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1427,28 +1427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9470757126661</v>
+        <v>184.6782033347554</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3263453828245</v>
+        <v>252.6848652298114</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8797608410805</v>
+        <v>228.5689763377875</v>
       </c>
       <c r="AD2" t="n">
-        <v>125947.0757126661</v>
+        <v>184678.2033347554</v>
       </c>
       <c r="AE2" t="n">
-        <v>172326.3453828245</v>
+        <v>252684.8652298114</v>
       </c>
       <c r="AF2" t="n">
         <v>1.331594944314079e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155879.7608410805</v>
+        <v>228568.9763377875</v>
       </c>
     </row>
     <row r="3">
@@ -1533,28 +1533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.0051052861644</v>
+        <v>184.7362329082537</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.4057440053689</v>
+        <v>252.7642638523558</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.9515817705259</v>
+        <v>228.6407972672329</v>
       </c>
       <c r="AD3" t="n">
-        <v>126005.1052861644</v>
+        <v>184736.2329082537</v>
       </c>
       <c r="AE3" t="n">
-        <v>172405.7440053689</v>
+        <v>252764.2638523558</v>
       </c>
       <c r="AF3" t="n">
         <v>1.330287095563666e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>155951.5817705259</v>
+        <v>228640.7972672329</v>
       </c>
     </row>
   </sheetData>
@@ -1830,28 +1830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1312287246571</v>
+        <v>182.214523625305</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8418234243165</v>
+        <v>249.3139499614652</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.6323581712433</v>
+        <v>225.5197764915419</v>
       </c>
       <c r="AD2" t="n">
-        <v>124131.2287246571</v>
+        <v>182214.523625305</v>
       </c>
       <c r="AE2" t="n">
-        <v>169841.8234243165</v>
+        <v>249313.9499614652</v>
       </c>
       <c r="AF2" t="n">
         <v>1.493023102323427e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153632.3581712432</v>
+        <v>225519.7764915419</v>
       </c>
     </row>
   </sheetData>
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.599787628706</v>
+        <v>175.7326780670644</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.6417058037674</v>
+        <v>240.4452029098408</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.0239710744776</v>
+        <v>217.497450211157</v>
       </c>
       <c r="AD2" t="n">
-        <v>119599.787628706</v>
+        <v>175732.6780670644</v>
       </c>
       <c r="AE2" t="n">
-        <v>163641.7058037674</v>
+        <v>240445.2029098408</v>
       </c>
       <c r="AF2" t="n">
         <v>2.050532975096315e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148023.9710744776</v>
+        <v>217497.450211157</v>
       </c>
     </row>
   </sheetData>
@@ -2424,28 +2424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1681953083056</v>
+        <v>177.962130852693</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.7876703842579</v>
+        <v>243.4956385676515</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.965127807287</v>
+        <v>220.2567565711006</v>
       </c>
       <c r="AD2" t="n">
-        <v>121168.1953083056</v>
+        <v>177962.130852693</v>
       </c>
       <c r="AE2" t="n">
-        <v>165787.6703842579</v>
+        <v>243495.6385676515</v>
       </c>
       <c r="AF2" t="n">
         <v>1.826393029120087e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149965.127807287</v>
+        <v>220256.7565711006</v>
       </c>
     </row>
   </sheetData>
@@ -2721,28 +2721,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.8959324544033</v>
+        <v>183.3360717937612</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.9928571543594</v>
+        <v>250.8485016447593</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.2917844716137</v>
+        <v>226.9078727159396</v>
       </c>
       <c r="AD2" t="n">
-        <v>127895.9324544033</v>
+        <v>183336.0717937612</v>
       </c>
       <c r="AE2" t="n">
-        <v>174992.8571543594</v>
+        <v>250848.5016447593</v>
       </c>
       <c r="AF2" t="n">
         <v>2.224835182790917e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>158291.7844716137</v>
+        <v>226907.8727159397</v>
       </c>
     </row>
   </sheetData>
@@ -3018,28 +3018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.5843178786</v>
+        <v>182.8378900715599</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.4617599936236</v>
+        <v>250.1668674342173</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.1931288644623</v>
+        <v>226.291292717772</v>
       </c>
       <c r="AD2" t="n">
-        <v>124584.3178786</v>
+        <v>182837.8900715598</v>
       </c>
       <c r="AE2" t="n">
-        <v>170461.7599936236</v>
+        <v>250166.8674342173</v>
       </c>
       <c r="AF2" t="n">
         <v>1.45084194008784e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>154193.1288644623</v>
+        <v>226291.292717772</v>
       </c>
     </row>
   </sheetData>
@@ -3315,28 +3315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3091144399002</v>
+        <v>191.601577563018</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1899468583329</v>
+        <v>262.1577312866297</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5655028073481</v>
+        <v>237.137765353397</v>
       </c>
       <c r="AD2" t="n">
-        <v>127309.1144399002</v>
+        <v>191601.577563018</v>
       </c>
       <c r="AE2" t="n">
-        <v>174189.9468583329</v>
+        <v>262157.7312866297</v>
       </c>
       <c r="AF2" t="n">
         <v>2.318065894565078e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>157565.5028073481</v>
+        <v>237137.765353397</v>
       </c>
     </row>
   </sheetData>
@@ -3612,28 +3612,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6624167336872</v>
+        <v>180.0915942087595</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.8321300588607</v>
+        <v>246.4092642767131</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.8144671199635</v>
+        <v>222.8923099317896</v>
       </c>
       <c r="AD2" t="n">
-        <v>122662.4167336871</v>
+        <v>180091.5942087595</v>
       </c>
       <c r="AE2" t="n">
-        <v>167832.1300588607</v>
+        <v>246409.2642767131</v>
       </c>
       <c r="AF2" t="n">
         <v>1.647701587844199e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>151814.4671199635</v>
+        <v>222892.3099317896</v>
       </c>
     </row>
   </sheetData>
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6008021332445</v>
+        <v>181.4058595073381</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.1160703611764</v>
+        <v>248.2075000395205</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.9758699618482</v>
+        <v>224.518924597235</v>
       </c>
       <c r="AD2" t="n">
-        <v>123600.8021332445</v>
+        <v>181405.8595073381</v>
       </c>
       <c r="AE2" t="n">
-        <v>169116.0703611764</v>
+        <v>248207.5000395205</v>
       </c>
       <c r="AF2" t="n">
         <v>1.543954843598162e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>152975.8699618482</v>
+        <v>224518.924597235</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6265880326733</v>
+        <v>184.2035978932997</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.88784000014</v>
+        <v>252.0354891266977</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4831057966731</v>
+        <v>227.9815757785497</v>
       </c>
       <c r="AD2" t="n">
-        <v>125626.5880326733</v>
+        <v>184203.5978932997</v>
       </c>
       <c r="AE2" t="n">
-        <v>171887.84000014</v>
+        <v>252035.4891266977</v>
       </c>
       <c r="AF2" t="n">
         <v>1.358848202053153e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155483.1057966731</v>
+        <v>227981.5757785497</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.7314257156694</v>
+        <v>178.7483924244198</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.5583070755845</v>
+        <v>244.5714363375</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.662216014389</v>
+        <v>221.2298817116867</v>
       </c>
       <c r="AD2" t="n">
-        <v>121731.4257156694</v>
+        <v>178748.3924244198</v>
       </c>
       <c r="AE2" t="n">
-        <v>166558.3070755845</v>
+        <v>244571.4363375</v>
       </c>
       <c r="AF2" t="n">
         <v>1.755837619454158e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>150662.216014389</v>
+        <v>221229.8817116867</v>
       </c>
     </row>
   </sheetData>
@@ -4800,28 +4800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.0111467205572</v>
+        <v>176.3152617059521</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.2045454611203</v>
+        <v>241.2423195463428</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.5330941048833</v>
+        <v>218.2184911546317</v>
       </c>
       <c r="AD2" t="n">
-        <v>120011.1467205573</v>
+        <v>176315.2617059521</v>
       </c>
       <c r="AE2" t="n">
-        <v>164204.5454611203</v>
+        <v>241242.3195463428</v>
       </c>
       <c r="AF2" t="n">
         <v>1.988536952791678e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148533.0941048833</v>
+        <v>218218.4911546317</v>
       </c>
     </row>
   </sheetData>
@@ -7438,28 +7438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.9985156469139</v>
+        <v>174.834320152827</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.8190189520321</v>
+        <v>239.2160299788277</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.2798003012234</v>
+        <v>216.3855878195244</v>
       </c>
       <c r="AD2" t="n">
-        <v>118998.5156469139</v>
+        <v>174834.320152827</v>
       </c>
       <c r="AE2" t="n">
-        <v>162819.0189520321</v>
+        <v>239216.0299788277</v>
       </c>
       <c r="AF2" t="n">
         <v>2.146877709334737e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>147279.8003012234</v>
+        <v>216385.5878195244</v>
       </c>
     </row>
   </sheetData>
@@ -7735,28 +7735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4196449561315</v>
+        <v>209.1763333137488</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.9695736908454</v>
+        <v>286.2042874482702</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.9801968333981</v>
+        <v>258.8893519445319</v>
       </c>
       <c r="AD2" t="n">
-        <v>145419.6449561315</v>
+        <v>209176.3333137488</v>
       </c>
       <c r="AE2" t="n">
-        <v>198969.5736908454</v>
+        <v>286204.2874482702</v>
       </c>
       <c r="AF2" t="n">
         <v>2.36236363400519e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179980.1968333981</v>
+        <v>258889.3519445319</v>
       </c>
     </row>
   </sheetData>
@@ -8032,28 +8032,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9085405794264</v>
+        <v>180.5296665062436</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.1688875628187</v>
+        <v>247.0086541205164</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.119084960386</v>
+        <v>223.4344948501494</v>
       </c>
       <c r="AD2" t="n">
-        <v>122908.5405794264</v>
+        <v>180529.6665062436</v>
       </c>
       <c r="AE2" t="n">
-        <v>168168.8875628187</v>
+        <v>247008.6541205164</v>
       </c>
       <c r="AF2" t="n">
         <v>1.612663673250009e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>152119.084960386</v>
+        <v>223434.4948501494</v>
       </c>
     </row>
   </sheetData>
@@ -8329,28 +8329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.9889841161804</v>
+        <v>183.4069568739391</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.0154421924952</v>
+        <v>250.9454897386877</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.6939684113716</v>
+        <v>226.9956044023073</v>
       </c>
       <c r="AD2" t="n">
-        <v>124988.9841161804</v>
+        <v>183406.9568739391</v>
       </c>
       <c r="AE2" t="n">
-        <v>171015.4421924952</v>
+        <v>250945.4897386877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.413170911632773e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>154693.9684113716</v>
+        <v>226995.6044023073</v>
       </c>
     </row>
   </sheetData>
@@ -8626,28 +8626,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.9854736957853</v>
+        <v>254.1510126889333</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.6863566909555</v>
+        <v>347.7406279121871</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.0973429998271</v>
+        <v>314.5527504413884</v>
       </c>
       <c r="AD2" t="n">
-        <v>172985.4736957853</v>
+        <v>254151.0126889333</v>
       </c>
       <c r="AE2" t="n">
-        <v>236686.3566909555</v>
+        <v>347740.6279121871</v>
       </c>
       <c r="AF2" t="n">
         <v>2.273946778955105e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214097.3429998271</v>
+        <v>314552.7504413883</v>
       </c>
     </row>
   </sheetData>
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.5810932285811</v>
+        <v>177.1382551651822</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.9843714176634</v>
+        <v>242.3683755051699</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.2384945666268</v>
+        <v>219.2370779131781</v>
       </c>
       <c r="AD2" t="n">
-        <v>120581.0932285811</v>
+        <v>177138.2551651823</v>
       </c>
       <c r="AE2" t="n">
-        <v>164984.3714176634</v>
+        <v>242368.3755051699</v>
       </c>
       <c r="AF2" t="n">
         <v>1.907632264538744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>149238.4945666268</v>
+        <v>219237.0779131781</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.1744856609241</v>
+        <v>179.4026881291712</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.1645212391069</v>
+        <v>245.4666725862297</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.210573948972</v>
+        <v>222.03967786931</v>
       </c>
       <c r="AD2" t="n">
-        <v>122174.4856609241</v>
+        <v>179402.6881291712</v>
       </c>
       <c r="AE2" t="n">
-        <v>167164.5212391069</v>
+        <v>245466.6725862297</v>
       </c>
       <c r="AF2" t="n">
         <v>1.702205459971462e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>151210.573948972</v>
+        <v>222039.67786931</v>
       </c>
     </row>
   </sheetData>
